--- a/RPS Formulary Complete Product Replacement - Agile checklist.xlsx
+++ b/RPS Formulary Complete Product Replacement - Agile checklist.xlsx
@@ -999,63 +999,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1082,11 +1025,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1924,74 +1924,74 @@
       <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:20" s="16" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:20" s="16" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="81">
         <v>1</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
     </row>
     <row r="7" spans="1:20" s="16" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="71"/>
     </row>
     <row r="8" spans="1:20" s="16" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="9" spans="1:20" ht="13.5" thickBot="1">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="52"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="72">
         <v>42226</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -2030,13 +2030,13 @@
       <c r="T10" s="16"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="27"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="28"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -2054,11 +2054,11 @@
       <c r="T11" s="16"/>
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="29"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="30"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -2079,10 +2079,10 @@
       <c r="A13" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="32" t="s">
         <v>98</v>
       </c>
@@ -2111,10 +2111,10 @@
       <c r="A14" s="35">
         <v>1</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="69"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="36"/>
       <c r="E14" s="37">
         <v>41903</v>
@@ -2139,8 +2139,8 @@
     </row>
     <row r="15" spans="1:20" ht="13.5" thickBot="1">
       <c r="A15" s="39"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="40"/>
       <c r="E15" s="41"/>
       <c r="F15" s="42"/>
@@ -2161,8 +2161,8 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="43"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="44"/>
       <c r="E16" s="45"/>
       <c r="F16" s="46"/>
@@ -4062,23 +4062,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4090,7 +4090,7 @@
   <dimension ref="A1:BT87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
@@ -4110,19 +4110,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="15">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="53" t="s">
         <v>102</v>
       </c>
       <c r="F1" s="2"/>
@@ -4194,7 +4194,7 @@
       <c r="BT1" s="2"/>
     </row>
     <row r="2" spans="1:72" ht="60">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="54" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4280,7 +4280,7 @@
       <c r="BT2" s="2"/>
     </row>
     <row r="3" spans="1:72" ht="120">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="54" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -4366,7 +4366,7 @@
       <c r="BT3" s="2"/>
     </row>
     <row r="4" spans="1:72" ht="30">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="54" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -4452,7 +4452,7 @@
       <c r="BT4" s="2"/>
     </row>
     <row r="5" spans="1:72" ht="60">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="56" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -4538,7 +4538,7 @@
       <c r="BT5" s="2"/>
     </row>
     <row r="6" spans="1:72" ht="135">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="54" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -4622,7 +4622,7 @@
       <c r="BT6" s="2"/>
     </row>
     <row r="7" spans="1:72" ht="30">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -4634,7 +4634,7 @@
       <c r="D7" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="55" t="s">
         <v>105</v>
       </c>
       <c r="F7" s="2"/>
@@ -4708,7 +4708,7 @@
       <c r="BT7" s="2"/>
     </row>
     <row r="8" spans="1:72" ht="105">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="54" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4792,7 +4792,7 @@
       <c r="BT8" s="2"/>
     </row>
     <row r="9" spans="1:72" ht="30">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="56" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4878,7 +4878,7 @@
       <c r="BT9" s="2"/>
     </row>
     <row r="10" spans="1:72" ht="90">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="54" t="s">
         <v>63</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -4890,7 +4890,7 @@
       <c r="D10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="61" t="s">
         <v>118</v>
       </c>
       <c r="F10" s="2"/>
@@ -4964,7 +4964,7 @@
       <c r="BT10" s="2"/>
     </row>
     <row r="11" spans="1:72" ht="15">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="56" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="5"/>
@@ -5048,7 +5048,7 @@
       <c r="BT11" s="2"/>
     </row>
     <row r="12" spans="1:72" ht="30">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="56" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="7"/>
@@ -5130,7 +5130,7 @@
       <c r="BT12" s="2"/>
     </row>
     <row r="13" spans="1:72" ht="30">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="54" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="7"/>
@@ -5212,7 +5212,7 @@
       <c r="BT13" s="2"/>
     </row>
     <row r="14" spans="1:72" ht="30">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="54" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -5296,15 +5296,15 @@
       <c r="BT14" s="2"/>
     </row>
     <row r="15" spans="1:72" ht="30.75" thickBot="1">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="80" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="81" t="s">
+      <c r="D15" s="58"/>
+      <c r="E15" s="60" t="s">
         <v>105</v>
       </c>
       <c r="F15" s="2"/>
@@ -10773,7 +10773,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
